--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_VietCom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_VietCom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="35" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -301,6 +301,21 @@
   </si>
   <si>
     <t>SF, NCFW</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>quanly365.vn,0891</t>
+  </si>
+  <si>
+    <t>Set lại Port 08091 cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa chân connector</t>
+  </si>
+  <si>
+    <t>Thiết bị set sai port</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1276,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44385</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>45</v>
       </c>
@@ -1273,11 +1290,17 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -1286,10 +1309,10 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
@@ -1347,18 +1370,10 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="51"/>
-      <c r="O8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>30</v>
-      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
       <c r="U8" s="67"/>
@@ -1714,7 +1729,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1746,7 +1761,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2055,7 +2070,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2215,7 +2230,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2247,7 +2262,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2854,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:K10"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3070,7 +3085,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44385</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -3125,7 +3142,9 @@
       <c r="B7" s="37">
         <v>44383</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44385</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -3180,7 +3199,9 @@
       <c r="B8" s="37">
         <v>44383</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44385</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -3231,7 +3252,9 @@
       <c r="B9" s="37">
         <v>44383</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44385</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -3282,7 +3305,9 @@
       <c r="B10" s="37">
         <v>44383</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44385</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -3302,12 +3327,22 @@
         <v>70</v>
       </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
       <c r="U10" s="67"/>
@@ -3323,7 +3358,9 @@
       <c r="B11" s="37">
         <v>44383</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44385</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -3338,17 +3375,29 @@
       <c r="I11" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="M11" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
       <c r="U11" s="67"/>
@@ -3364,7 +3413,9 @@
       <c r="B12" s="37">
         <v>44383</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44385</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -3376,16 +3427,30 @@
         <v>67</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
       <c r="U12" s="66" t="s">
@@ -3403,7 +3468,9 @@
       <c r="B13" s="37">
         <v>44383</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44385</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -3458,7 +3525,9 @@
       <c r="B14" s="37">
         <v>44383</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44385</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -3478,12 +3547,22 @@
         <v>70</v>
       </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
       <c r="U14" s="67"/>
@@ -3499,7 +3578,9 @@
       <c r="B15" s="37">
         <v>44383</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37">
+        <v>44385</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -3511,16 +3592,30 @@
         <v>67</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
       <c r="U15" s="67"/>
@@ -3536,7 +3631,9 @@
       <c r="B16" s="37">
         <v>44383</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="37">
+        <v>44385</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -3587,7 +3684,9 @@
       <c r="B17" s="37">
         <v>44383</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37">
+        <v>44385</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -3638,7 +3737,9 @@
       <c r="B18" s="37">
         <v>44383</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37">
+        <v>44385</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -3695,7 +3796,9 @@
       <c r="B19" s="37">
         <v>44383</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="37">
+        <v>44385</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
@@ -3771,7 +3874,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3803,7 +3906,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4112,7 +4215,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4240,7 +4343,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4304,7 +4407,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="W37" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_VietCom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_VietCom.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="35" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -715,6 +715,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,31 +751,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1093,43 +1093,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -1174,58 +1174,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1250,23 +1250,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1347,7 +1347,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1523,7 +1523,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2841,6 +2841,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2852,13 +2859,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2869,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C19"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2902,43 +2902,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="59"/>
@@ -2983,58 +2983,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3059,23 +3059,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4986,13 +4986,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5004,6 +4997,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5014,8 +5014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5047,43 +5047,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5128,58 +5128,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -5204,49 +5204,73 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="56">
+        <v>862549040727821</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5258,26 +5282,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183034607197</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="62" t="s">
+        <v>69</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5287,26 +5337,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183034635222</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5316,26 +5394,50 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
+      <c r="B9" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183038471244</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="62" t="s">
+        <v>69</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5345,26 +5447,50 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183034587324</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>83</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5374,26 +5500,50 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
+      <c r="B11" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183038470295</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="M11" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5403,26 +5553,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183034634431</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5434,26 +5610,50 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>860157040205160</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="62" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5463,26 +5663,54 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="B14" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>867857039895920</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5492,26 +5720,50 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183035867253</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5521,26 +5773,50 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868183038615378</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="50" t="s">
+        <v>69</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5550,23 +5826,47 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>867857039892323</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="43"/>
@@ -5577,23 +5877,49 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>867857039908160</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="I18" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5604,23 +5930,55 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="B19" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="56">
+        <v>868183034518972</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="44" t="s">
@@ -5635,23 +5993,49 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="37">
+        <v>44383</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44385</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="56">
+        <v>867857039909523</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="62" t="s">
+        <v>69</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="K20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="41"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -5659,7 +6043,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5674,7 +6058,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5691,7 +6075,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5723,7 +6107,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5936,7 +6320,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -6000,7 +6384,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6064,7 +6448,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -6128,7 +6512,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6160,7 +6544,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6192,7 +6576,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6310,7 +6694,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6771,13 +7155,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6789,6 +7166,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
